--- a/Single DAO Result/OGN results_output.xlsx
+++ b/Single DAO Result/OGN results_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.005332454267023928</v>
+        <v>0.005660429663667347</v>
       </c>
     </row>
     <row r="3">
@@ -457,27 +457,17 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.476074786435919</v>
+        <v>0.4779239625443956</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Develop</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.2716241355338277</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
           <t>Revenue</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>-0.3094908995248171</v>
+      <c r="B4" t="n">
+        <v>-0.262112728617557</v>
       </c>
     </row>
   </sheetData>
